--- a/Practical exercises/Hand-in 3/ScenarioTesting.xlsx
+++ b/Practical exercises/Hand-in 3/ScenarioTesting.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="11">
   <si>
     <t>Counter</t>
   </si>
@@ -42,6 +42,21 @@
   </si>
   <si>
     <t>ctl_dq</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>N2</t>
   </si>
 </sst>
 </file>
@@ -82,12 +97,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -678,7 +694,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.157</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.157</c:v>
@@ -687,7 +703,7 @@
                   <c:v>0.157</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.157</c:v>
+                  <c:v>6.2799999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>6.2799999999999995E-2</c:v>
@@ -724,6 +740,7 @@
               <a:solidFill>
                 <a:srgbClr val="0070C0"/>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst>
@@ -2175,6 +2192,1338 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Position of</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> arm</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$E$110</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>env_q</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$E$111:$E$125</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.628</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.628</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.628</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75360000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75360000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75360000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.75360000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.75360000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.75360000000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.75360000000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.75360000000000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75360000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C6C3-4052-9AEB-7CAA7A294D51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$H$110</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ctl_q</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$H$111:$H$125</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.628</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.628</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.628</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75360000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75360000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.75360000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.75360000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.75360000000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.75360000000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.75360000000000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75360000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C6C3-4052-9AEB-7CAA7A294D51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$G$110</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ctl_qt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$G$111:$G$125</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.78500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.78500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.78500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.78500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.78500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.78500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.78500000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C6C3-4052-9AEB-7CAA7A294D51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1258141455"/>
+        <c:axId val="1258141871"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1258141455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1258141871"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1258141871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1258141455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Position of arm</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.2432790877851188E-2"/>
+          <c:y val="0.11242718446601943"/>
+          <c:w val="0.92586652169164563"/>
+          <c:h val="0.79637970011030179"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$E$131</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>env_q</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$E$132:$E$140</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6013999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6013999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6013999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.51976</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.51976</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.51976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0C67-42F5-8BE5-A9D57ABE43C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$H$131</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ctl_q</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$H$132:$H$140</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6013999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6013999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6013999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.51976</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.51976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0C67-42F5-8BE5-A9D57ABE43C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$K$131</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$K$132:$K$140</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-0.17444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.17444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.17444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.17444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.17444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.17444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.17444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.17444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.17444444444444446</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0C67-42F5-8BE5-A9D57ABE43C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$L$131</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$L$132:$L$140</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.7444444444444445</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7444444444444445</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7444444444444445</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7444444444444445</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7444444444444445</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7444444444444445</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7444444444444445</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7444444444444445</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7444444444444445</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0C67-42F5-8BE5-A9D57ABE43C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$M$131</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$M$132:$M$140</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0C67-42F5-8BE5-A9D57ABE43C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$N$131</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$N$132:$N$140</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.57</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.57</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.57</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.57</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.57</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.57</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0C67-42F5-8BE5-A9D57ABE43C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1266033823"/>
+        <c:axId val="1266034239"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1266033823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1266034239"/>
+        <c:crossesAt val="-0.4"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1266034239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1266033823"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
@@ -2369,6 +3718,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
@@ -4909,20 +6338,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4943,16 +7364,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5056,6 +7477,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Diagram 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>209124</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>106539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>557388</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>98777</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Diagram 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5327,13 +7808,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:N140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B79" workbookViewId="0">
-      <selection activeCell="W92" sqref="W92"/>
+    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="108" workbookViewId="0">
+      <selection activeCell="D131" sqref="D131:J140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="14" max="14" width="7.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1"/>
@@ -5421,7 +7905,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.157</v>
       </c>
       <c r="G15">
         <v>0.78500000000000003</v>
@@ -5481,7 +7965,7 @@
         <v>0.47099999999999997</v>
       </c>
       <c r="F18">
-        <v>0.157</v>
+        <v>6.2799999999999995E-2</v>
       </c>
       <c r="G18">
         <v>0.78500000000000003</v>
@@ -5834,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="G53">
         <v>0.8</v>
@@ -5893,8 +8377,8 @@
       <c r="E56">
         <v>0.8</v>
       </c>
-      <c r="F56">
-        <v>0.16</v>
+      <c r="F56" s="2">
+        <v>-2.2204460492503101E-17</v>
       </c>
       <c r="G56">
         <v>0.8</v>
@@ -6014,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>7.85E-2</v>
       </c>
       <c r="G67">
         <v>0.39250000000000002</v>
@@ -6074,7 +8558,7 @@
         <v>0.54949999999999999</v>
       </c>
       <c r="F70">
-        <v>7.85E-2</v>
+        <v>-3.1399999999999997E-2</v>
       </c>
       <c r="G70">
         <v>0.39250000000000002</v>
@@ -6134,7 +8618,7 @@
         <v>0.32969999999999999</v>
       </c>
       <c r="F73">
-        <v>-3.1399999999999997E-2</v>
+        <v>1.256E-2</v>
       </c>
       <c r="G73">
         <v>0.39250000000000002</v>
@@ -6194,7 +8678,7 @@
         <v>0.41761999999999999</v>
       </c>
       <c r="F76">
-        <v>1.256E-2</v>
+        <v>-5.0239999999999998E-3</v>
       </c>
       <c r="G76">
         <v>0.39250000000000002</v>
@@ -6254,7 +8738,7 @@
         <v>0.38245200000000001</v>
       </c>
       <c r="F79">
-        <v>-5.0239999999999998E-3</v>
+        <v>2.0095999999999998E-3</v>
       </c>
       <c r="G79">
         <v>0.39250000000000002</v>
@@ -6313,8 +8797,8 @@
       <c r="E82">
         <v>0.39651920000000002</v>
       </c>
-      <c r="F82">
-        <v>2.0095999999999998E-3</v>
+      <c r="F82" s="2">
+        <v>-8.0384E-4</v>
       </c>
       <c r="G82">
         <v>0.39250000000000002</v>
@@ -6374,7 +8858,7 @@
         <v>0.39089232000000002</v>
       </c>
       <c r="F85" s="2">
-        <v>-8.0384E-4</v>
+        <v>3.2153599999999998E-4</v>
       </c>
       <c r="G85">
         <v>0.39250000000000002</v>
@@ -6526,7 +9010,7 @@
         <v>3.13999999999999E-2</v>
       </c>
     </row>
-    <row r="97" spans="4:9">
+    <row r="97" spans="4:10">
       <c r="D97" s="1">
         <v>6</v>
       </c>
@@ -6546,7 +9030,7 @@
         <v>3.13999999999999E-2</v>
       </c>
     </row>
-    <row r="98" spans="4:9">
+    <row r="98" spans="4:10">
       <c r="D98" s="1">
         <v>7</v>
       </c>
@@ -6566,7 +9050,7 @@
         <v>3.13999999999999E-2</v>
       </c>
     </row>
-    <row r="99" spans="4:9">
+    <row r="99" spans="4:10">
       <c r="D99" s="1">
         <v>8</v>
       </c>
@@ -6586,7 +9070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="4:9">
+    <row r="100" spans="4:10">
       <c r="D100" s="1">
         <v>9</v>
       </c>
@@ -6606,7 +9090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="4:9">
+    <row r="101" spans="4:10">
       <c r="D101" s="1">
         <v>10</v>
       </c>
@@ -6626,7 +9110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="4:9">
+    <row r="102" spans="4:10">
       <c r="D102" s="1">
         <v>11</v>
       </c>
@@ -6646,7 +9130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="4:9">
+    <row r="103" spans="4:10">
       <c r="D103" s="1">
         <v>12</v>
       </c>
@@ -6666,7 +9150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="4:9">
+    <row r="104" spans="4:10">
       <c r="D104" s="1">
         <v>13</v>
       </c>
@@ -6686,7 +9170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="4:9">
+    <row r="105" spans="4:10">
       <c r="D105" s="1">
         <v>14</v>
       </c>
@@ -6704,6 +9188,751 @@
       </c>
       <c r="I105">
         <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="4:10">
+      <c r="D110" t="s">
+        <v>0</v>
+      </c>
+      <c r="E110" t="s">
+        <v>1</v>
+      </c>
+      <c r="F110" t="s">
+        <v>2</v>
+      </c>
+      <c r="G110" t="s">
+        <v>3</v>
+      </c>
+      <c r="H110" t="s">
+        <v>4</v>
+      </c>
+      <c r="I110" t="s">
+        <v>5</v>
+      </c>
+      <c r="J110" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="4:10">
+      <c r="D111" s="1">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="4:10">
+      <c r="D112" s="1">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="4:10">
+      <c r="D113" s="1">
+        <v>2</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0.157</v>
+      </c>
+      <c r="G113">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0.157</v>
+      </c>
+      <c r="J113">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="114" spans="4:10">
+      <c r="D114" s="1">
+        <v>3</v>
+      </c>
+      <c r="E114">
+        <v>0.628</v>
+      </c>
+      <c r="F114">
+        <v>0.157</v>
+      </c>
+      <c r="G114">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0.157</v>
+      </c>
+      <c r="J114">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="115" spans="4:10">
+      <c r="D115" s="1">
+        <v>4</v>
+      </c>
+      <c r="E115">
+        <v>0.628</v>
+      </c>
+      <c r="F115">
+        <v>0.157</v>
+      </c>
+      <c r="G115">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="H115">
+        <v>0.628</v>
+      </c>
+      <c r="I115">
+        <v>0.157</v>
+      </c>
+      <c r="J115">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="116" spans="4:10">
+      <c r="D116" s="1">
+        <v>5</v>
+      </c>
+      <c r="E116">
+        <v>0.628</v>
+      </c>
+      <c r="F116">
+        <v>3.13999999999999E-2</v>
+      </c>
+      <c r="G116">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="H116">
+        <v>0.628</v>
+      </c>
+      <c r="I116">
+        <v>3.13999999999999E-2</v>
+      </c>
+      <c r="J116">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="117" spans="4:10">
+      <c r="D117" s="1">
+        <v>6</v>
+      </c>
+      <c r="E117">
+        <v>0.75360000000000005</v>
+      </c>
+      <c r="F117">
+        <v>3.13999999999999E-2</v>
+      </c>
+      <c r="G117">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="H117">
+        <v>0.628</v>
+      </c>
+      <c r="I117">
+        <v>3.13999999999999E-2</v>
+      </c>
+      <c r="J117">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="118" spans="4:10">
+      <c r="D118" s="1">
+        <v>7</v>
+      </c>
+      <c r="E118">
+        <v>0.75360000000000005</v>
+      </c>
+      <c r="F118">
+        <v>3.13999999999999E-2</v>
+      </c>
+      <c r="G118">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="H118">
+        <v>0.75360000000000005</v>
+      </c>
+      <c r="I118">
+        <v>3.13999999999999E-2</v>
+      </c>
+      <c r="J118">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="119" spans="4:10">
+      <c r="D119" s="1">
+        <v>8</v>
+      </c>
+      <c r="E119">
+        <v>0.75360000000000005</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="H119">
+        <v>0.75360000000000005</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="4:10">
+      <c r="D120" s="1">
+        <v>9</v>
+      </c>
+      <c r="E120">
+        <v>0.75360000000000005</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="H120">
+        <v>0.75360000000000005</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="4:10">
+      <c r="D121" s="1">
+        <v>10</v>
+      </c>
+      <c r="E121">
+        <v>0.75360000000000005</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="H121">
+        <v>0.75360000000000005</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="4:10">
+      <c r="D122" s="1">
+        <v>11</v>
+      </c>
+      <c r="E122">
+        <v>0.75360000000000005</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="H122">
+        <v>0.75360000000000005</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="4:10">
+      <c r="D123" s="1">
+        <v>12</v>
+      </c>
+      <c r="E123">
+        <v>0.75360000000000005</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="H123">
+        <v>0.75360000000000005</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="4:10">
+      <c r="D124" s="1">
+        <v>13</v>
+      </c>
+      <c r="E124">
+        <v>0.75360000000000005</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="H124">
+        <v>0.75360000000000005</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="4:10">
+      <c r="D125" s="1">
+        <v>14</v>
+      </c>
+      <c r="E125">
+        <v>0.75360000000000005</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="H125">
+        <v>0.75360000000000005</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="4:14">
+      <c r="D131" t="s">
+        <v>0</v>
+      </c>
+      <c r="E131" t="s">
+        <v>1</v>
+      </c>
+      <c r="F131" t="s">
+        <v>2</v>
+      </c>
+      <c r="G131" t="s">
+        <v>3</v>
+      </c>
+      <c r="H131" t="s">
+        <v>4</v>
+      </c>
+      <c r="I131" t="s">
+        <v>5</v>
+      </c>
+      <c r="J131" t="s">
+        <v>6</v>
+      </c>
+      <c r="K131" t="s">
+        <v>7</v>
+      </c>
+      <c r="L131" t="s">
+        <v>8</v>
+      </c>
+      <c r="M131" t="s">
+        <v>9</v>
+      </c>
+      <c r="N131" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="4:14">
+      <c r="D132" s="1">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <f>-10*3.14/180</f>
+        <v>-0.17444444444444446</v>
+      </c>
+      <c r="L132">
+        <f>(5*3.14)/9</f>
+        <v>1.7444444444444445</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132" s="3">
+        <f>3.14/2</f>
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="133" spans="4:14">
+      <c r="D133" s="1">
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <f t="shared" ref="K133:K140" si="0">-10*3.14/180</f>
+        <v>-0.17444444444444446</v>
+      </c>
+      <c r="L133">
+        <f t="shared" ref="L133:L140" si="1">(5*3.14)/9</f>
+        <v>1.7444444444444445</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133" s="3">
+        <f t="shared" ref="N133:N140" si="2">3.14/2</f>
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="134" spans="4:14">
+      <c r="D134" s="1">
+        <v>2</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>0.157</v>
+      </c>
+      <c r="G134">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>0.157</v>
+      </c>
+      <c r="J134">
+        <v>0.2</v>
+      </c>
+      <c r="K134">
+        <f t="shared" si="0"/>
+        <v>-0.17444444444444446</v>
+      </c>
+      <c r="L134">
+        <f t="shared" si="1"/>
+        <v>1.7444444444444445</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134" s="3">
+        <f t="shared" si="2"/>
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="135" spans="4:14">
+      <c r="D135" s="1">
+        <v>3</v>
+      </c>
+      <c r="E135">
+        <v>1.6013999999999999</v>
+      </c>
+      <c r="F135">
+        <v>0.157</v>
+      </c>
+      <c r="G135">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0.157</v>
+      </c>
+      <c r="J135">
+        <v>0.2</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="0"/>
+        <v>-0.17444444444444446</v>
+      </c>
+      <c r="L135">
+        <f t="shared" si="1"/>
+        <v>1.7444444444444445</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135" s="3">
+        <f t="shared" si="2"/>
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="136" spans="4:14">
+      <c r="D136" s="1">
+        <v>4</v>
+      </c>
+      <c r="E136">
+        <v>1.6013999999999999</v>
+      </c>
+      <c r="F136">
+        <v>0.157</v>
+      </c>
+      <c r="G136">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="H136">
+        <v>1.6013999999999999</v>
+      </c>
+      <c r="I136">
+        <v>0.157</v>
+      </c>
+      <c r="J136">
+        <v>0.2</v>
+      </c>
+      <c r="K136">
+        <f t="shared" si="0"/>
+        <v>-0.17444444444444446</v>
+      </c>
+      <c r="L136">
+        <f t="shared" si="1"/>
+        <v>1.7444444444444445</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136" s="3">
+        <f t="shared" si="2"/>
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="137" spans="4:14">
+      <c r="D137" s="1">
+        <v>5</v>
+      </c>
+      <c r="E137">
+        <v>1.6013999999999999</v>
+      </c>
+      <c r="F137">
+        <v>-8.1640000000000004E-2</v>
+      </c>
+      <c r="G137">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="H137">
+        <v>1.6013999999999999</v>
+      </c>
+      <c r="I137">
+        <v>-8.1640000000000004E-2</v>
+      </c>
+      <c r="J137">
+        <v>0.1</v>
+      </c>
+      <c r="K137">
+        <f t="shared" si="0"/>
+        <v>-0.17444444444444446</v>
+      </c>
+      <c r="L137">
+        <f t="shared" si="1"/>
+        <v>1.7444444444444445</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137" s="3">
+        <f t="shared" si="2"/>
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="138" spans="4:14">
+      <c r="D138" s="1">
+        <v>6</v>
+      </c>
+      <c r="E138">
+        <v>1.51976</v>
+      </c>
+      <c r="F138">
+        <v>-8.1640000000000004E-2</v>
+      </c>
+      <c r="G138">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="H138">
+        <v>1.6013999999999999</v>
+      </c>
+      <c r="I138">
+        <v>-8.1640000000000004E-2</v>
+      </c>
+      <c r="J138">
+        <v>0.1</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="0"/>
+        <v>-0.17444444444444446</v>
+      </c>
+      <c r="L138">
+        <f t="shared" si="1"/>
+        <v>1.7444444444444445</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138" s="3">
+        <f t="shared" si="2"/>
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="139" spans="4:14">
+      <c r="D139" s="1">
+        <v>7</v>
+      </c>
+      <c r="E139">
+        <v>1.51976</v>
+      </c>
+      <c r="F139">
+        <v>-8.1640000000000004E-2</v>
+      </c>
+      <c r="G139">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="H139">
+        <v>1.51976</v>
+      </c>
+      <c r="I139">
+        <v>-8.1640000000000004E-2</v>
+      </c>
+      <c r="J139">
+        <v>0.1</v>
+      </c>
+      <c r="K139">
+        <f t="shared" si="0"/>
+        <v>-0.17444444444444446</v>
+      </c>
+      <c r="L139">
+        <f t="shared" si="1"/>
+        <v>1.7444444444444445</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139" s="3">
+        <f t="shared" si="2"/>
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="140" spans="4:14">
+      <c r="D140" s="1">
+        <v>8</v>
+      </c>
+      <c r="E140">
+        <v>1.51976</v>
+      </c>
+      <c r="F140">
+        <v>-0.146952</v>
+      </c>
+      <c r="G140">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="H140">
+        <v>1.51976</v>
+      </c>
+      <c r="I140">
+        <v>-0.146952</v>
+      </c>
+      <c r="J140">
+        <v>0.2</v>
+      </c>
+      <c r="K140">
+        <f t="shared" si="0"/>
+        <v>-0.17444444444444446</v>
+      </c>
+      <c r="L140">
+        <f t="shared" si="1"/>
+        <v>1.7444444444444445</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140" s="3">
+        <f t="shared" si="2"/>
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>
